--- a/server/tempass1.xlsx
+++ b/server/tempass1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315DC7B-40BF-495F-915A-8F6311B6C04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802415CC-840C-4F04-97CB-CBA8DDC05EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3468" yWindow="1908" windowWidth="18144" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,12 +390,12 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>0.5</v>
       </c>
@@ -465,7 +465,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
@@ -497,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -535,7 +535,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -687,7 +687,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -725,7 +725,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
